--- a/public/template/Template_Log Panggilan.xlsx
+++ b/public/template/Template_Log Panggilan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Kerja\CRM-Manager\crm\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBD664-C73C-4407-9731-72F4B09BB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34137396-816C-4D6B-B825-7164C808C6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Respon</t>
+  </si>
+  <si>
+    <t>Durasi</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -35,15 +61,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +83,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,14 +396,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>